--- a/Clusters.xlsx
+++ b/Clusters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sukree/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6EDF0C-E840-3842-84F4-AF16CD9295B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B24157-2ED3-4D42-9F2F-6B85D006CA34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{32BB0D1A-2D78-504E-A201-5F408A9E649E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="3" xr2:uid="{32BB0D1A-2D78-504E-A201-5F408A9E649E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster Index" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="85">
   <si>
     <t>Province</t>
   </si>
@@ -285,240 +285,6 @@
   </si>
   <si>
     <t>ร้อยละครัวเรือนที่มีอินเทอร์เน็ต</t>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>209A1</t>
-  </si>
-  <si>
-    <t>209A2</t>
-  </si>
-  <si>
-    <t>209A3</t>
-  </si>
-  <si>
-    <t>209A4</t>
-  </si>
-  <si>
-    <t>209A5</t>
-  </si>
-  <si>
-    <t>209A6</t>
-  </si>
-  <si>
-    <t>209A7</t>
-  </si>
-  <si>
-    <t>209A8</t>
-  </si>
-  <si>
-    <t>209A9</t>
-  </si>
-  <si>
-    <t>209A10</t>
-  </si>
-  <si>
-    <t>209A11</t>
-  </si>
-  <si>
-    <t>209A12</t>
-  </si>
-  <si>
-    <t>209A13</t>
-  </si>
-  <si>
-    <t>209A14</t>
-  </si>
-  <si>
-    <t>209A15</t>
-  </si>
-  <si>
-    <t>209A16</t>
-  </si>
-  <si>
-    <t>209A17</t>
-  </si>
-  <si>
-    <t>209A18</t>
-  </si>
-  <si>
-    <t>209A19</t>
-  </si>
-  <si>
-    <t>209A20</t>
-  </si>
-  <si>
-    <t>209A21</t>
-  </si>
-  <si>
-    <t>209A22</t>
-  </si>
-  <si>
-    <t>209A23</t>
-  </si>
-  <si>
-    <t>209A24</t>
-  </si>
-  <si>
-    <t>209A25</t>
-  </si>
-  <si>
-    <t>209A26</t>
-  </si>
-  <si>
-    <t>209A27</t>
-  </si>
-  <si>
-    <t>209A28</t>
-  </si>
-  <si>
-    <t>209A29</t>
-  </si>
-  <si>
-    <t>209A30</t>
-  </si>
-  <si>
-    <t>209A31</t>
-  </si>
-  <si>
-    <t>209A32</t>
-  </si>
-  <si>
-    <t>209A33</t>
-  </si>
-  <si>
-    <t>209A34</t>
-  </si>
-  <si>
-    <t>209A35</t>
-  </si>
-  <si>
-    <t>209A36</t>
-  </si>
-  <si>
-    <t>209A37</t>
-  </si>
-  <si>
-    <t>209A38</t>
-  </si>
-  <si>
-    <t>209A39</t>
-  </si>
-  <si>
-    <t>209A40</t>
-  </si>
-  <si>
-    <t>209A41</t>
-  </si>
-  <si>
-    <t>209A42</t>
-  </si>
-  <si>
-    <t>209A43</t>
-  </si>
-  <si>
-    <t>209A44</t>
-  </si>
-  <si>
-    <t>209A45</t>
-  </si>
-  <si>
-    <t>209A46</t>
-  </si>
-  <si>
-    <t>209A47</t>
-  </si>
-  <si>
-    <t>209A48</t>
-  </si>
-  <si>
-    <t>209A49</t>
-  </si>
-  <si>
-    <t>209A50</t>
-  </si>
-  <si>
-    <t>209A51</t>
-  </si>
-  <si>
-    <t>209A52</t>
-  </si>
-  <si>
-    <t>209A53</t>
-  </si>
-  <si>
-    <t>209A54</t>
-  </si>
-  <si>
-    <t>209A55</t>
-  </si>
-  <si>
-    <t>209A56</t>
-  </si>
-  <si>
-    <t>209A57</t>
-  </si>
-  <si>
-    <t>209A58</t>
-  </si>
-  <si>
-    <t>209A59</t>
-  </si>
-  <si>
-    <t>209A60</t>
-  </si>
-  <si>
-    <t>209A61</t>
-  </si>
-  <si>
-    <t>209A62</t>
-  </si>
-  <si>
-    <t>209A63</t>
-  </si>
-  <si>
-    <t>209A64</t>
-  </si>
-  <si>
-    <t>209A65</t>
-  </si>
-  <si>
-    <t>209A66</t>
-  </si>
-  <si>
-    <t>209A67</t>
-  </si>
-  <si>
-    <t>209A68</t>
-  </si>
-  <si>
-    <t>209A69</t>
-  </si>
-  <si>
-    <t>209A70</t>
-  </si>
-  <si>
-    <t>209A71</t>
-  </si>
-  <si>
-    <t>209A72</t>
-  </si>
-  <si>
-    <t>209A73</t>
-  </si>
-  <si>
-    <t>209A74</t>
-  </si>
-  <si>
-    <t>209A75</t>
-  </si>
-  <si>
-    <t>209A76</t>
-  </si>
-  <si>
-    <t>209A77</t>
   </si>
   <si>
     <t>GPP (ล้านบาท)</t>
@@ -1170,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818A3A5D-D79F-CF48-87C9-E2A14761139A}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1191,27 +957,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4609,8 +4375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81DAF87-B169-6741-894D-17B064647015}">
   <dimension ref="A1:AA78"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
@@ -4699,9 +4465,6 @@
       <c r="Y1" s="12">
         <v>2561</v>
       </c>
-      <c r="Z1" s="14" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="16" t="s">
@@ -4779,9 +4542,7 @@
       <c r="Y2" s="18">
         <v>211192.22739099999</v>
       </c>
-      <c r="Z2" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="16" t="s">
@@ -4859,9 +4620,7 @@
       <c r="Y3" s="18">
         <v>111634.88572999999</v>
       </c>
-      <c r="Z3" s="19" t="s">
-        <v>82</v>
-      </c>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="16" t="s">
@@ -4939,9 +4698,7 @@
       <c r="Y4" s="18">
         <v>54769.051514999999</v>
       </c>
-      <c r="Z4" s="19" t="s">
-        <v>83</v>
-      </c>
+      <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="20" t="s">
@@ -5019,9 +4776,7 @@
       <c r="Y5" s="18">
         <v>42358.818475000007</v>
       </c>
-      <c r="Z5" s="19" t="s">
-        <v>84</v>
-      </c>
+      <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="20" t="s">
@@ -5099,9 +4854,7 @@
       <c r="Y6" s="18">
         <v>25363.136757</v>
       </c>
-      <c r="Z6" s="19" t="s">
-        <v>85</v>
-      </c>
+      <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="20" t="s">
@@ -5179,9 +4932,7 @@
       <c r="Y7" s="18">
         <v>44184.107401000001</v>
       </c>
-      <c r="Z7" s="19" t="s">
-        <v>86</v>
-      </c>
+      <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="16" t="s">
@@ -5259,9 +5010,7 @@
       <c r="Y8" s="18">
         <v>59297.412839999997</v>
       </c>
-      <c r="Z8" s="19" t="s">
-        <v>87</v>
-      </c>
+      <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="16" t="s">
@@ -5339,9 +5088,7 @@
       <c r="Y9" s="18">
         <v>59250.831766000003</v>
       </c>
-      <c r="Z9" s="19" t="s">
-        <v>88</v>
-      </c>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="16" t="s">
@@ -5419,9 +5166,7 @@
       <c r="Y10" s="18">
         <v>295510.75753599999</v>
       </c>
-      <c r="Z10" s="19" t="s">
-        <v>89</v>
-      </c>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="16" t="s">
@@ -5499,9 +5244,7 @@
       <c r="Y11" s="18">
         <v>65652.570381999991</v>
       </c>
-      <c r="Z11" s="19" t="s">
-        <v>90</v>
-      </c>
+      <c r="Z11" s="19"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="16" t="s">
@@ -5579,9 +5322,7 @@
       <c r="Y12" s="18">
         <v>27793.274133999999</v>
       </c>
-      <c r="Z12" s="19" t="s">
-        <v>91</v>
-      </c>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="16" t="s">
@@ -5659,9 +5400,7 @@
       <c r="Y13" s="18">
         <v>124216.88836099999</v>
       </c>
-      <c r="Z13" s="19" t="s">
-        <v>92</v>
-      </c>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="16" t="s">
@@ -5739,9 +5478,7 @@
       <c r="Y14" s="18">
         <v>75601.775554999986</v>
       </c>
-      <c r="Z14" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="16" t="s">
@@ -5819,9 +5556,7 @@
       <c r="Y15" s="18">
         <v>82428.671978000013</v>
       </c>
-      <c r="Z15" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="16" t="s">
@@ -5899,9 +5634,7 @@
       <c r="Y16" s="18">
         <v>75890.614797999995</v>
       </c>
-      <c r="Z16" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="16" t="s">
@@ -5979,9 +5712,7 @@
       <c r="Y17" s="18">
         <v>59694.705509000007</v>
       </c>
-      <c r="Z17" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="16" t="s">
@@ -6059,9 +5790,7 @@
       <c r="Y18" s="18">
         <v>72483.746859000006</v>
       </c>
-      <c r="Z18" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="16" t="s">
@@ -6139,9 +5868,7 @@
       <c r="Y19" s="18">
         <v>29053.372217</v>
       </c>
-      <c r="Z19" s="19" t="s">
-        <v>98</v>
-      </c>
+      <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="16" t="s">
@@ -6219,9 +5946,7 @@
       <c r="Y20" s="18">
         <v>18568.722846000001</v>
       </c>
-      <c r="Z20" s="19" t="s">
-        <v>99</v>
-      </c>
+      <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="16" t="s">
@@ -6299,9 +6024,7 @@
       <c r="Y21" s="18">
         <v>24320.755955999997</v>
       </c>
-      <c r="Z21" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="Z21" s="19"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="16" t="s">
@@ -6379,9 +6102,7 @@
       <c r="Y22" s="18">
         <v>247830.87080600002</v>
       </c>
-      <c r="Z22" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="Z22" s="19"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="16" t="s">
@@ -6459,9 +6180,7 @@
       <c r="Y23" s="18">
         <v>71949.919454999996</v>
       </c>
-      <c r="Z23" s="19" t="s">
-        <v>102</v>
-      </c>
+      <c r="Z23" s="19"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="16" t="s">
@@ -6539,9 +6258,7 @@
       <c r="Y24" s="18">
         <v>39190.114819000002</v>
       </c>
-      <c r="Z24" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="Z24" s="19"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="16" t="s">
@@ -6619,9 +6336,7 @@
       <c r="Y25" s="18">
         <v>13728.181328999999</v>
       </c>
-      <c r="Z25" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="Z25" s="19"/>
     </row>
     <row r="26" spans="1:27" s="23" customFormat="1">
       <c r="A26" s="20" t="s">
@@ -6699,9 +6414,7 @@
       <c r="Y26" s="18">
         <v>110815.399814</v>
       </c>
-      <c r="Z26" s="19" t="s">
-        <v>105</v>
-      </c>
+      <c r="Z26" s="19"/>
       <c r="AA26" s="15"/>
     </row>
     <row r="27" spans="1:27">
@@ -6780,9 +6493,7 @@
       <c r="Y27" s="18">
         <v>30403.384093000001</v>
       </c>
-      <c r="Z27" s="19" t="s">
-        <v>106</v>
-      </c>
+      <c r="Z27" s="19"/>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="16" t="s">
@@ -6860,9 +6571,7 @@
       <c r="Y28" s="18">
         <v>84394.587411</v>
       </c>
-      <c r="Z28" s="19" t="s">
-        <v>107</v>
-      </c>
+      <c r="Z28" s="19"/>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="16" t="s">
@@ -6940,9 +6649,7 @@
       <c r="Y29" s="18">
         <v>33674.426268999996</v>
       </c>
-      <c r="Z29" s="19" t="s">
-        <v>108</v>
-      </c>
+      <c r="Z29" s="19"/>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="16" t="s">
@@ -7020,9 +6727,7 @@
       <c r="Y30" s="18">
         <v>37298.250861999994</v>
       </c>
-      <c r="Z30" s="19" t="s">
-        <v>109</v>
-      </c>
+      <c r="Z30" s="19"/>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="16" t="s">
@@ -7100,9 +6805,7 @@
       <c r="Y31" s="18">
         <v>116146.502907</v>
       </c>
-      <c r="Z31" s="19" t="s">
-        <v>110</v>
-      </c>
+      <c r="Z31" s="19"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="16" t="s">
@@ -7180,9 +6883,7 @@
       <c r="Y32" s="18">
         <v>100286.252089</v>
       </c>
-      <c r="Z32" s="19" t="s">
-        <v>111</v>
-      </c>
+      <c r="Z32" s="19"/>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="16" t="s">
@@ -7260,9 +6961,7 @@
       <c r="Y33" s="18">
         <v>117705.3327</v>
       </c>
-      <c r="Z33" s="19" t="s">
-        <v>112</v>
-      </c>
+      <c r="Z33" s="19"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="16" t="s">
@@ -7340,9 +7039,7 @@
       <c r="Y34" s="18">
         <v>29878.680407</v>
       </c>
-      <c r="Z34" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="Z34" s="19"/>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="16" t="s">
@@ -7420,9 +7117,7 @@
       <c r="Y35" s="18">
         <v>50384.289795999997</v>
       </c>
-      <c r="Z35" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Z35" s="19"/>
     </row>
     <row r="36" spans="1:27" s="23" customFormat="1">
       <c r="A36" s="20" t="s">
@@ -7500,9 +7195,7 @@
       <c r="Y36" s="18">
         <v>52720.124441</v>
       </c>
-      <c r="Z36" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="Z36" s="19"/>
       <c r="AA36" s="15"/>
     </row>
     <row r="37" spans="1:27">
@@ -7581,9 +7274,7 @@
       <c r="Y37" s="18">
         <v>48347.022759999993</v>
       </c>
-      <c r="Z37" s="19" t="s">
-        <v>116</v>
-      </c>
+      <c r="Z37" s="19"/>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="16" t="s">
@@ -7661,9 +7352,7 @@
       <c r="Y38" s="18">
         <v>81909.105320000002</v>
       </c>
-      <c r="Z38" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="Z38" s="19"/>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="16" t="s">
@@ -7741,9 +7430,7 @@
       <c r="Y39" s="18">
         <v>234027.77846600002</v>
       </c>
-      <c r="Z39" s="19" t="s">
-        <v>118</v>
-      </c>
+      <c r="Z39" s="19"/>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="16" t="s">
@@ -7821,9 +7508,7 @@
       <c r="Y40" s="18">
         <v>206869.354612</v>
       </c>
-      <c r="Z40" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="Z40" s="19"/>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="16" t="s">
@@ -7901,9 +7586,7 @@
       <c r="Y41" s="18">
         <v>28013.817691</v>
       </c>
-      <c r="Z41" s="19" t="s">
-        <v>120</v>
-      </c>
+      <c r="Z41" s="19"/>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="16" t="s">
@@ -7981,9 +7664,7 @@
       <c r="Y42" s="18">
         <v>78492.699156000002</v>
       </c>
-      <c r="Z42" s="19" t="s">
-        <v>121</v>
-      </c>
+      <c r="Z42" s="19"/>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="16" t="s">
@@ -8061,9 +7742,7 @@
       <c r="Y43" s="18">
         <v>86684.487852000006</v>
       </c>
-      <c r="Z43" s="19" t="s">
-        <v>122</v>
-      </c>
+      <c r="Z43" s="19"/>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="16" t="s">
@@ -8141,9 +7820,7 @@
       <c r="Y44" s="18">
         <v>87746.248422999997</v>
       </c>
-      <c r="Z44" s="19" t="s">
-        <v>123</v>
-      </c>
+      <c r="Z44" s="19"/>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="16" t="s">
@@ -8221,9 +7898,7 @@
       <c r="Y45" s="18">
         <v>164374.83453399999</v>
       </c>
-      <c r="Z45" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z45" s="19"/>
     </row>
     <row r="46" spans="1:27" s="23" customFormat="1">
       <c r="A46" s="20" t="s">
@@ -8301,9 +7976,7 @@
       <c r="Y46" s="18">
         <v>248386.02851800001</v>
       </c>
-      <c r="Z46" s="19" t="s">
-        <v>125</v>
-      </c>
+      <c r="Z46" s="19"/>
       <c r="AA46" s="15"/>
     </row>
     <row r="47" spans="1:27">
@@ -8382,9 +8055,7 @@
       <c r="Y47" s="18">
         <v>31215.124991000004</v>
       </c>
-      <c r="Z47" s="19" t="s">
-        <v>126</v>
-      </c>
+      <c r="Z47" s="19"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="16" t="s">
@@ -8462,9 +8133,7 @@
       <c r="Y48" s="18">
         <v>43005.943423999997</v>
       </c>
-      <c r="Z48" s="19" t="s">
-        <v>127</v>
-      </c>
+      <c r="Z48" s="19"/>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="16" t="s">
@@ -8542,9 +8211,7 @@
       <c r="Y49" s="18">
         <v>64585.554294000001</v>
       </c>
-      <c r="Z49" s="19" t="s">
-        <v>128</v>
-      </c>
+      <c r="Z49" s="19"/>
     </row>
     <row r="50" spans="1:27" s="23" customFormat="1">
       <c r="A50" s="20" t="s">
@@ -8622,9 +8289,7 @@
       <c r="Y50" s="18">
         <v>44777.721590000001</v>
       </c>
-      <c r="Z50" s="19" t="s">
-        <v>129</v>
-      </c>
+      <c r="Z50" s="19"/>
       <c r="AA50" s="15"/>
     </row>
     <row r="51" spans="1:27">
@@ -8703,9 +8368,7 @@
       <c r="Y51" s="18">
         <v>36006.202571000002</v>
       </c>
-      <c r="Z51" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="Z51" s="19"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="16" t="s">
@@ -8783,9 +8446,7 @@
       <c r="Y52" s="18">
         <v>48548.755830999995</v>
       </c>
-      <c r="Z52" s="19" t="s">
-        <v>131</v>
-      </c>
+      <c r="Z52" s="19"/>
     </row>
     <row r="53" spans="1:27" s="27" customFormat="1">
       <c r="A53" s="24" t="s">
@@ -8863,9 +8524,7 @@
       <c r="Y53" s="26">
         <v>1030949.4573349999</v>
       </c>
-      <c r="Z53" s="19" t="s">
-        <v>132</v>
-      </c>
+      <c r="Z53" s="19"/>
       <c r="AA53" s="15"/>
     </row>
     <row r="54" spans="1:27" s="27" customFormat="1">
@@ -8944,9 +8603,7 @@
       <c r="Y54" s="26">
         <v>386602.36007900001</v>
       </c>
-      <c r="Z54" s="19" t="s">
-        <v>133</v>
-      </c>
+      <c r="Z54" s="19"/>
       <c r="AA54" s="15"/>
     </row>
     <row r="55" spans="1:27" s="27" customFormat="1">
@@ -9025,9 +8682,7 @@
       <c r="Y55" s="26">
         <v>1045696.8961560001</v>
       </c>
-      <c r="Z55" s="19" t="s">
-        <v>134</v>
-      </c>
+      <c r="Z55" s="19"/>
       <c r="AA55" s="15"/>
     </row>
     <row r="56" spans="1:27" s="23" customFormat="1">
@@ -9106,9 +8761,7 @@
       <c r="Y56" s="18">
         <v>43055.800796999996</v>
       </c>
-      <c r="Z56" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="Z56" s="19"/>
       <c r="AA56" s="15"/>
     </row>
     <row r="57" spans="1:27" s="27" customFormat="1">
@@ -9187,9 +8840,7 @@
       <c r="Y57" s="26">
         <v>120157.48777199999</v>
       </c>
-      <c r="Z57" s="19" t="s">
-        <v>136</v>
-      </c>
+      <c r="Z57" s="19"/>
       <c r="AA57" s="15"/>
     </row>
     <row r="58" spans="1:27" s="27" customFormat="1">
@@ -9268,9 +8919,7 @@
       <c r="Y58" s="26">
         <v>30231.885093000001</v>
       </c>
-      <c r="Z58" s="19" t="s">
-        <v>137</v>
-      </c>
+      <c r="Z58" s="19"/>
       <c r="AA58" s="15"/>
     </row>
     <row r="59" spans="1:27" s="27" customFormat="1">
@@ -9349,9 +8998,7 @@
       <c r="Y59" s="26">
         <v>318977.04816500004</v>
       </c>
-      <c r="Z59" s="19" t="s">
-        <v>138</v>
-      </c>
+      <c r="Z59" s="19"/>
       <c r="AA59" s="15"/>
     </row>
     <row r="60" spans="1:27" s="23" customFormat="1">
@@ -9430,9 +9077,7 @@
       <c r="Y60" s="18">
         <v>50824.283621000002</v>
       </c>
-      <c r="Z60" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="Z60" s="19"/>
       <c r="AA60" s="15"/>
     </row>
     <row r="61" spans="1:27">
@@ -9511,9 +9156,7 @@
       <c r="Y61" s="18">
         <v>189679.685482</v>
       </c>
-      <c r="Z61" s="19" t="s">
-        <v>140</v>
-      </c>
+      <c r="Z61" s="19"/>
     </row>
     <row r="62" spans="1:27" s="23" customFormat="1">
       <c r="A62" s="20" t="s">
@@ -9591,9 +9234,7 @@
       <c r="Y62" s="18">
         <v>107143.565439</v>
       </c>
-      <c r="Z62" s="19" t="s">
-        <v>141</v>
-      </c>
+      <c r="Z62" s="19"/>
       <c r="AA62" s="15"/>
     </row>
     <row r="63" spans="1:27">
@@ -9672,9 +9313,7 @@
       <c r="Y63" s="18">
         <v>93381.272878999996</v>
       </c>
-      <c r="Z63" s="19" t="s">
-        <v>142</v>
-      </c>
+      <c r="Z63" s="19"/>
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="16" t="s">
@@ -9752,9 +9391,7 @@
       <c r="Y64" s="18">
         <v>72035.051351000002</v>
       </c>
-      <c r="Z64" s="19" t="s">
-        <v>143</v>
-      </c>
+      <c r="Z64" s="19"/>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="16" t="s">
@@ -9832,9 +9469,7 @@
       <c r="Y65" s="18">
         <v>91601.990951</v>
       </c>
-      <c r="Z65" s="19" t="s">
-        <v>144</v>
-      </c>
+      <c r="Z65" s="19"/>
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="16" t="s">
@@ -9912,9 +9547,7 @@
       <c r="Y66" s="18">
         <v>25973.622243999998</v>
       </c>
-      <c r="Z66" s="19" t="s">
-        <v>145</v>
-      </c>
+      <c r="Z66" s="19"/>
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="16" t="s">
@@ -9992,9 +9625,7 @@
       <c r="Y67" s="18">
         <v>246063.12399299999</v>
       </c>
-      <c r="Z67" s="19" t="s">
-        <v>146</v>
-      </c>
+      <c r="Z67" s="19"/>
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="16" t="s">
@@ -10072,9 +9703,7 @@
       <c r="Y68" s="18">
         <v>27782.749960000001</v>
       </c>
-      <c r="Z68" s="19" t="s">
-        <v>147</v>
-      </c>
+      <c r="Z68" s="19"/>
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="16" t="s">
@@ -10152,9 +9781,7 @@
       <c r="Y69" s="18">
         <v>35279.599696999998</v>
       </c>
-      <c r="Z69" s="19" t="s">
-        <v>148</v>
-      </c>
+      <c r="Z69" s="19"/>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="16" t="s">
@@ -10232,9 +9859,7 @@
       <c r="Y70" s="18">
         <v>30539.260002999999</v>
       </c>
-      <c r="Z70" s="19" t="s">
-        <v>149</v>
-      </c>
+      <c r="Z70" s="19"/>
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="16" t="s">
@@ -10312,9 +9937,7 @@
       <c r="Y71" s="18">
         <v>110961.982345</v>
       </c>
-      <c r="Z71" s="19" t="s">
-        <v>150</v>
-      </c>
+      <c r="Z71" s="19"/>
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="16" t="s">
@@ -10392,9 +10015,7 @@
       <c r="Y72" s="18">
         <v>412701.09903099999</v>
       </c>
-      <c r="Z72" s="19" t="s">
-        <v>151</v>
-      </c>
+      <c r="Z72" s="19"/>
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="16" t="s">
@@ -10472,9 +10093,7 @@
       <c r="Y73" s="18">
         <v>5386803.003543999</v>
       </c>
-      <c r="Z73" s="19" t="s">
-        <v>152</v>
-      </c>
+      <c r="Z73" s="19"/>
     </row>
     <row r="74" spans="1:26">
       <c r="A74" s="16" t="s">
@@ -10552,9 +10171,7 @@
       <c r="Y74" s="18">
         <v>796136.69145799999</v>
       </c>
-      <c r="Z74" s="19" t="s">
-        <v>153</v>
-      </c>
+      <c r="Z74" s="19"/>
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="16" t="s">
@@ -10632,9 +10249,7 @@
       <c r="Y75" s="18">
         <v>403797.17312600004</v>
       </c>
-      <c r="Z75" s="19" t="s">
-        <v>154</v>
-      </c>
+      <c r="Z75" s="19"/>
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="16" t="s">
@@ -10712,9 +10327,7 @@
       <c r="Y76" s="18">
         <v>406245.36543099995</v>
       </c>
-      <c r="Z76" s="19" t="s">
-        <v>155</v>
-      </c>
+      <c r="Z76" s="19"/>
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="16" t="s">
@@ -10792,9 +10405,7 @@
       <c r="Y77" s="18">
         <v>349065.52257600002</v>
       </c>
-      <c r="Z77" s="19" t="s">
-        <v>156</v>
-      </c>
+      <c r="Z77" s="19"/>
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="16" t="s">
@@ -10872,9 +10483,7 @@
       <c r="Y78" s="18">
         <v>325224.69457599998</v>
       </c>
-      <c r="Z78" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="Z78" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
